--- a/JacaSportium/JacaSportium.xlsx
+++ b/JacaSportium/JacaSportium.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="17">
   <si>
     <t>Semana 1</t>
   </si>
@@ -28,17 +28,47 @@
     <t>Semana 5</t>
   </si>
   <si>
+    <t>Semana 6</t>
+  </si>
+  <si>
     <t>-Planificacion Inicial del Proyecto</t>
   </si>
   <si>
+    <t>Hecho</t>
+  </si>
+  <si>
+    <t>-BPMN</t>
+  </si>
+  <si>
+    <t>No Hecho</t>
+  </si>
+  <si>
+    <t>-MockUps</t>
+  </si>
+  <si>
+    <t>-Codigo</t>
+  </si>
+  <si>
     <t>-Analisis de Mercado</t>
+  </si>
+  <si>
+    <t>-Introduccion</t>
+  </si>
+  <si>
+    <t>-Diseño</t>
+  </si>
+  <si>
+    <t>-DAFO</t>
+  </si>
+  <si>
+    <t>-Exposición</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -50,6 +80,7 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -59,21 +90,113 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -292,40 +415,247 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="19.0"/>
-    <col customWidth="1" min="2" max="2" width="18.88"/>
+    <col customWidth="1" min="2" max="2" width="13.38"/>
     <col customWidth="1" min="3" max="3" width="21.25"/>
-    <col customWidth="1" min="4" max="4" width="17.25"/>
-    <col customWidth="1" min="5" max="5" width="18.63"/>
+    <col customWidth="1" min="4" max="4" width="13.38"/>
+    <col customWidth="1" min="5" max="5" width="17.25"/>
+    <col customWidth="1" min="6" max="6" width="13.38"/>
+    <col customWidth="1" min="7" max="7" width="18.63"/>
+    <col customWidth="1" min="8" max="8" width="13.38"/>
+    <col customWidth="1" min="10" max="10" width="13.38"/>
+    <col customWidth="1" min="12" max="12" width="13.38"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2"/>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="2"/>
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
+      <c r="A3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+  </mergeCells>
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:B6 D2:D6 F2:F6 H2:H6 J2:J6 L2:L6">
+      <formula1>"Hecho,No Hecho,-"</formula1>
+    </dataValidation>
+  </dataValidations>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>